--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200326/云主机人工工位开发需求（195962769）/云主机人工工位开发需求（195962769）测试报告.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200326/云主机人工工位开发需求（195962769）/云主机人工工位开发需求（195962769）测试报告.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -40,9 +40,6 @@
     </r>
   </si>
   <si>
-    <t>测试负责人</t>
-  </si>
-  <si>
     <t>需求分析</t>
   </si>
   <si>
@@ -133,10 +130,6 @@
   </si>
   <si>
     <t>测试通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>张轶晟</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -378,6 +371,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,24 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,25 +673,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IT3"/>
+  <dimension ref="A1:IS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="34.625" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="17" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="34.625" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="16" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" s="15" customFormat="1">
+    <row r="1" spans="1:253" s="15" customFormat="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -717,48 +710,46 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
@@ -992,67 +983,64 @@
       <c r="IQ1" s="17"/>
       <c r="IR1" s="17"/>
       <c r="IS1" s="17"/>
-      <c r="IT1" s="17"/>
-    </row>
-    <row r="2" spans="1:254" s="15" customFormat="1" ht="92.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:253" s="15" customFormat="1" ht="92.1" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="28">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="20">
+        <v>195962769</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="22">
-        <v>2</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="26">
-        <v>195962769</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="26" t="s">
+      <c r="N2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="20">
+        <v>195963628</v>
+      </c>
+      <c r="P2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="26">
-        <v>195963628</v>
-      </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="20">
+        <v>20200407</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="26">
-        <v>20200407</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="26"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
@@ -1286,37 +1274,36 @@
       <c r="IQ2" s="18"/>
       <c r="IR2" s="18"/>
       <c r="IS2" s="18"/>
-      <c r="IT2" s="18"/>
-    </row>
-    <row r="3" spans="1:254" s="15" customFormat="1" ht="93.95" customHeight="1">
+    </row>
+    <row r="3" spans="1:253" s="15" customFormat="1" ht="93.95" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
@@ -1550,26 +1537,24 @@
       <c r="IQ3" s="18"/>
       <c r="IR3" s="18"/>
       <c r="IS3" s="18"/>
-      <c r="IT3" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+  <mergeCells count="15">
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,37 +1587,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
